--- a/KTDH_59CNTT1.xlsx
+++ b/KTDH_59CNTT1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAAB65-0BE6-41D9-B624-8299B403E276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6774111-50E6-4FC0-A4D4-3AD09453DD8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="250">
   <si>
     <t>TRƯỜNG ĐẠI HỌC NHA TRANG</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>Thành</t>
+  </si>
+  <si>
+    <t>Lần 2</t>
   </si>
 </sst>
 </file>
@@ -1436,26 +1439,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1472,17 +1466,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1813,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,130 +1829,136 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="3" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1960,31 +1969,34 @@
         <v>238</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2006,20 +2018,23 @@
       <c r="G8" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" t="s">
         <v>227</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2039,20 +2054,21 @@
         <v>22</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" t="s">
         <v>228</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2072,22 +2088,23 @@
         <v>22</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" t="s">
         <v>229</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2109,22 +2126,25 @@
       <c r="G11" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" t="s">
         <v>230</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -2138,14 +2158,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2165,14 +2186,15 @@
         <v>22</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -2192,14 +2214,15 @@
         <v>22</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -2221,14 +2244,15 @@
       <c r="G15" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -2248,14 +2272,17 @@
         <v>22</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2275,20 +2302,21 @@
         <v>22</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" t="s">
+      <c r="N17" s="11"/>
+      <c r="O17" t="s">
         <v>231</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2308,14 +2336,15 @@
         <v>22</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -2335,14 +2364,15 @@
         <v>22</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -2362,14 +2392,17 @@
         <v>22</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -2389,14 +2422,15 @@
         <v>22</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -2416,14 +2450,15 @@
         <v>22</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2443,17 +2478,18 @@
         <v>22</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>58133216</v>
       </c>
@@ -2470,14 +2506,17 @@
         <v>62</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -2497,14 +2536,15 @@
         <v>22</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -2524,14 +2564,15 @@
         <v>22</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -2553,14 +2594,15 @@
       <c r="G27" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -2580,14 +2622,15 @@
         <v>22</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -2609,16 +2652,19 @@
       <c r="G29" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -2638,14 +2684,15 @@
         <v>22</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -2667,14 +2714,15 @@
       <c r="G31" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -2694,14 +2742,15 @@
         <v>88</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -2721,16 +2770,17 @@
         <v>22</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -2750,14 +2800,15 @@
         <v>22</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -2777,16 +2828,17 @@
         <v>22</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -2806,14 +2858,15 @@
         <v>101</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -2835,14 +2888,15 @@
       <c r="G37" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -2864,14 +2918,17 @@
       <c r="G38" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>35</v>
       </c>
@@ -2891,14 +2948,15 @@
         <v>22</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>36</v>
       </c>
@@ -2918,16 +2976,17 @@
         <v>22</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>7</v>
       </c>
@@ -2941,14 +3000,15 @@
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>37</v>
       </c>
@@ -2968,16 +3028,19 @@
         <v>117</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>5</v>
       </c>
@@ -2991,14 +3054,15 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>38</v>
       </c>
@@ -3018,14 +3082,15 @@
         <v>22</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>39</v>
       </c>
@@ -3045,16 +3110,17 @@
         <v>22</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I45" s="11"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>40</v>
       </c>
@@ -3074,14 +3140,15 @@
         <v>101</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>41</v>
       </c>
@@ -3103,16 +3170,19 @@
       <c r="G47" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I47" s="11"/>
+      <c r="H47" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>42</v>
       </c>
@@ -3132,14 +3202,15 @@
         <v>22</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43</v>
       </c>
@@ -3159,14 +3230,15 @@
         <v>22</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>44</v>
       </c>
@@ -3186,14 +3258,15 @@
         <v>22</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>45</v>
       </c>
@@ -3215,14 +3288,15 @@
       <c r="G51" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>46</v>
       </c>
@@ -3242,14 +3316,15 @@
         <v>22</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>47</v>
       </c>
@@ -3271,16 +3346,17 @@
       <c r="G53" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I53" s="11"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -3302,16 +3378,19 @@
       <c r="G54" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I54" s="11"/>
+      <c r="H54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>49</v>
       </c>
@@ -3331,14 +3410,15 @@
         <v>22</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>6</v>
       </c>
@@ -3352,14 +3432,15 @@
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>50</v>
       </c>
@@ -3381,14 +3462,15 @@
       <c r="G57" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>51</v>
       </c>
@@ -3410,14 +3492,15 @@
       <c r="G58" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>52</v>
       </c>
@@ -3437,16 +3520,17 @@
         <v>75</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" s="11"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>53</v>
       </c>
@@ -3466,16 +3550,17 @@
         <v>22</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>54</v>
       </c>
@@ -3495,14 +3580,15 @@
         <v>22</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
@@ -3514,14 +3600,15 @@
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>55</v>
       </c>
@@ -3541,16 +3628,17 @@
         <v>22</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>56</v>
       </c>
@@ -3572,16 +3660,19 @@
       <c r="G64" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I64" s="11"/>
+      <c r="H64" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>57</v>
       </c>
@@ -3601,14 +3692,15 @@
         <v>22</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>58</v>
       </c>
@@ -3628,14 +3720,15 @@
         <v>22</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>59</v>
       </c>
@@ -3655,14 +3748,15 @@
         <v>22</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>60</v>
       </c>
@@ -3682,14 +3776,15 @@
         <v>22</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>61</v>
       </c>
@@ -3711,16 +3806,19 @@
       <c r="G69" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I69" s="11"/>
+      <c r="H69" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>62</v>
       </c>
@@ -3740,16 +3838,19 @@
         <v>22</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I70" s="11"/>
+      <c r="H70" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>63</v>
       </c>
@@ -3769,14 +3870,17 @@
         <v>22</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>64</v>
       </c>
@@ -3798,14 +3902,17 @@
       <c r="G72" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H72" s="11"/>
+      <c r="H72" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>65</v>
       </c>
@@ -3825,14 +3932,15 @@
         <v>22</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>66</v>
       </c>
@@ -3854,16 +3962,19 @@
       <c r="G74" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I74" s="11"/>
+      <c r="H74" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>67</v>
       </c>
@@ -3883,14 +3994,15 @@
         <v>22</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>68</v>
       </c>
@@ -3912,16 +4024,19 @@
       <c r="G76" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I76" s="11"/>
+      <c r="H76" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>69</v>
       </c>
@@ -3941,16 +4056,17 @@
         <v>75</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>70</v>
       </c>
@@ -3972,163 +4088,171 @@
       <c r="G78" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H78" s="11"/>
+      <c r="H78" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="27"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="28"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="28" t="s">
+      <c r="H79" s="12"/>
+      <c r="I79" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="28" t="s">
+      <c r="J79" s="25"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L79" s="28"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="M79" s="25"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="17"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="12"/>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="12"/>
+      <c r="I80" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="23" t="s">
+      <c r="J80" s="28"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="L80" s="23"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="M80" s="28"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="17"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="12"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="H81" s="12"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B82" s="17"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="12"/>
+      <c r="I85" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="20" t="s">
+      <c r="J85" s="32"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="L85" s="20"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
+      <c r="M85" s="32"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="12"/>
+      <c r="I86" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="23" t="s">
+      <c r="J86" s="28"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="L86" s="23"/>
-    </row>
-    <row r="88" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="M86" s="28"/>
+    </row>
+    <row r="88" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N78">
     <sortCondition ref="D8:D78"/>
   </sortState>
   <mergeCells count="29">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="D79:E79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:N5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:G78">
+  <conditionalFormatting sqref="G7:H78">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$G$78</formula>
     </cfRule>
